--- a/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,25</t>
+          <t>0,0; 13,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,46</t>
+          <t>0,0; 21,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,23</t>
+          <t>0; 6,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,08</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,39</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,96</t>
+          <t>0,0; 25,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,15</t>
+          <t>2,9; 33,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,7</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,06</t>
+          <t>0,0; 6,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,62</t>
+          <t>2,04; 18,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,95</t>
+          <t>1,37; 17,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,3</t>
+          <t>0; 4,16</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,56</t>
+          <t>1,97; 6,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,83</t>
+          <t>0,6; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,48</t>
+          <t>0,34; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,92</t>
+          <t>1,16; 5,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,84</t>
+          <t>2,68; 7,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,81</t>
+          <t>1,35; 4,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,88</t>
+          <t>0,93; 4,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>1,05; 5,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,67</t>
+          <t>2,7; 6,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,26</t>
+          <t>1,24; 3,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,45</t>
+          <t>0,89; 2,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,9</t>
+          <t>1,56; 4,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,81</t>
+          <t>1,31; 6,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,87</t>
+          <t>0,4; 4,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0,37; 3,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,51; 4,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,86; 7,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,57</t>
+          <t>0,46; 4,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 33,14</t>
+          <t>0,86; 5,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,24; 2,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>1,99; 5,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 18,28</t>
+          <t>0,73; 3,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 17,92</t>
+          <t>0,88; 3,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0,63; 2,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,34</t>
+          <t>0,8; 4,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,6</t>
+          <t>0,96; 4,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,41</t>
+          <t>0,38; 3,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,64</t>
+          <t>0,78; 4,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,01</t>
+          <t>0,8; 4,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,9</t>
+          <t>2,35; 7,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,07</t>
+          <t>0,87; 4,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,78</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,45</t>
+          <t>1,19; 3,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,68</t>
+          <t>2,09; 5,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,31</t>
+          <t>0,95; 3,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,85</t>
+          <t>0,52; 2,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,81</t>
+          <t>0,0; 13,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,87</t>
+          <t>0,0; 22,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,57</t>
+          <t>0,0; 26,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 33,14</t>
+          <t>2,71; 33,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 18,28</t>
+          <t>2,07; 17,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 17,92</t>
+          <t>1,39; 17,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,21</t>
+          <t>1,85; 7,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,73</t>
+          <t>1,85; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,81</t>
+          <t>1,21; 7,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,99</t>
+          <t>0,77; 7,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,4</t>
+          <t>1,76; 8,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,83</t>
+          <t>0,6; 6,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,14</t>
+          <t>0,91; 7,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,4</t>
+          <t>2,27; 6,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 6,13</t>
+          <t>1,82; 5,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,59</t>
+          <t>1,52; 5,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,37</t>
+          <t>0,41; 3,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,25</t>
+          <t>1,96; 6,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,46</t>
+          <t>0,81; 3,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,23</t>
+          <t>0,33; 3,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,08</t>
+          <t>1,19; 5,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,39</t>
+          <t>2,41; 7,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,96</t>
+          <t>1,3; 5,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,15</t>
+          <t>0,95; 4,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,7</t>
+          <t>1,12; 5,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,06</t>
+          <t>2,68; 5,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,62</t>
+          <t>1,17; 3,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,95</t>
+          <t>0,79; 2,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,3</t>
+          <t>1,55; 4,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,34</t>
+          <t>1,41; 6,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,6</t>
+          <t>0,4; 4,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,41</t>
+          <t>0,36; 3,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,64</t>
+          <t>0,68; 4,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,01</t>
+          <t>1,45; 7,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,9</t>
+          <t>0,47; 4,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,07</t>
+          <t>0,92; 5,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,78</t>
+          <t>0,25; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,45</t>
+          <t>2,09; 5,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,68</t>
+          <t>0,76; 3,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,31</t>
+          <t>0,84; 3,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,85</t>
+          <t>0,63; 2,8</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,56</t>
+          <t>0,99; 4,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,83</t>
+          <t>0,95; 4,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,48</t>
+          <t>0,38; 3,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,92</t>
+          <t>0,79; 5,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,84</t>
+          <t>0,8; 4,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,81</t>
+          <t>2,37; 7,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,88</t>
+          <t>0,87; 5,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,67</t>
+          <t>1,05; 3,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,26</t>
+          <t>2,1; 5,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,45</t>
+          <t>0,99; 3,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,9</t>
+          <t>0,51; 3,12</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,35</t>
+          <t>2,23; 4,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,72</t>
+          <t>1,6; 3,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,5</t>
+          <t>0,99; 2,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,4</t>
+          <t>1,41; 3,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,76</t>
+          <t>2,52; 4,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,4</t>
+          <t>2,14; 4,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,05</t>
+          <t>1,9; 4,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,23</t>
+          <t>0,6; 2,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,1</t>
+          <t>2,58; 4,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,63</t>
+          <t>2,09; 3,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,94</t>
+          <t>1,59; 2,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,54</t>
+          <t>1,21; 2,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,64</t>
+          <t>0,0; 12,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,01</t>
+          <t>0,0; 26,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,88</t>
+          <t>0,0; 26,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 33,13</t>
+          <t>2,77; 32,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>0,0; 6,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 17,9</t>
+          <t>2,0; 16,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 17,74</t>
+          <t>1,32; 15,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,3</t>
+          <t>1,9; 7,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 8,56</t>
+          <t>1,88; 8,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,55</t>
+          <t>1,22; 7,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,11</t>
+          <t>0,77; 6,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 8,41</t>
+          <t>1,79; 8,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,61</t>
+          <t>0,59; 5,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,54</t>
+          <t>0,79; 7,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,29 +904,29 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,24</t>
+          <t>2,34; 6,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,74</t>
+          <t>1,79; 6,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,83</t>
+          <t>1,55; 6,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,24</t>
+          <t>0,37; 3,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,24</t>
+          <t>1,97; 5,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,89</t>
+          <t>0,83; 4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,13</t>
+          <t>0,32; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,02</t>
+          <t>1,15; 5,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,04</t>
+          <t>2,48; 7,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,04</t>
+          <t>1,27; 5,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,23</t>
+          <t>0,94; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,36</t>
+          <t>1,25; 5,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,97</t>
+          <t>2,71; 5,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,47</t>
+          <t>1,25; 3,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,89</t>
+          <t>0,93; 3,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,45</t>
+          <t>1,46; 4,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,29</t>
+          <t>1,3; 6,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,62</t>
+          <t>0,4; 5,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,21</t>
+          <t>0,36; 3,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,64</t>
+          <t>0,68; 4,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,02</t>
+          <t>1,85; 7,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,96</t>
+          <t>0,65; 5,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,16</t>
+          <t>0,95; 5,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,67</t>
+          <t>0,24; 2,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,67</t>
+          <t>1,89; 5,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,71</t>
+          <t>0,77; 3,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,26</t>
+          <t>0,96; 3,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,8</t>
+          <t>0,57; 2,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,97</t>
+          <t>0,97; 4,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,98</t>
+          <t>0,95; 5,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,41</t>
+          <t>0,38; 3,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,14</t>
+          <t>0,63; 4,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,46</t>
+          <t>0,8; 4,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,83</t>
+          <t>2,4; 7,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,22</t>
+          <t>0,85; 5,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,1</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,8</t>
+          <t>1,09; 3,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,02</t>
+          <t>1,96; 5,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,63</t>
+          <t>1,05; 3,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,12</t>
+          <t>0,55; 3,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,34</t>
+          <t>2,12; 4,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,61</t>
+          <t>1,55; 3,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,88</t>
+          <t>0,95; 2,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,39</t>
+          <t>1,44; 3,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,79</t>
+          <t>2,51; 4,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,45</t>
+          <t>2,12; 4,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,07</t>
+          <t>1,74; 3,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,22</t>
+          <t>0,62; 2,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,18</t>
+          <t>2,63; 4,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,66</t>
+          <t>2,12; 3,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,92</t>
+          <t>1,58; 3,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,48</t>
+          <t>1,17; 2,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,68</t>
+          <t>1,47; 6,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,96</t>
+          <t>1,21; 7,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>1,77; 9,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,9; 6,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,66</t>
+          <t>1,93; 8,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 32,17</t>
+          <t>1,0; 5,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,68; 6,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,75</t>
+          <t>1,99; 5,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 16,89</t>
+          <t>2,15; 6,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 15,51</t>
+          <t>2,05; 6,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0,35; 3,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>2,7%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,28</t>
+          <t>2,68; 7,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,32</t>
+          <t>1,35; 4,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,25</t>
+          <t>0,93; 4,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,9</t>
+          <t>1,09; 5,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,32</t>
+          <t>1,97; 6,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,37</t>
+          <t>0,6; 3,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,07</t>
+          <t>0,34; 3,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>1,24; 5,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,39</t>
+          <t>2,7; 6,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,07</t>
+          <t>1,24; 3,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,05</t>
+          <t>0,89; 2,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,47</t>
+          <t>1,56; 4,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,95</t>
+          <t>1,86; 7,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,03</t>
+          <t>0,46; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,07</t>
+          <t>0,86; 5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,33</t>
+          <t>0,19; 2,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,33</t>
+          <t>1,31; 6,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,18</t>
+          <t>0,4; 4,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,12</t>
+          <t>0,37; 3,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,41</t>
+          <t>0,49; 4,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,86</t>
+          <t>1,99; 5,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,52</t>
+          <t>0,73; 3,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,07</t>
+          <t>0,88; 3,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,45</t>
+          <t>0,54; 2,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,4</t>
+          <t>0,8; 4,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,04</t>
+          <t>2,35; 7,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,49</t>
+          <t>0,87; 4,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,24</t>
+          <t>0,0; 3,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,6</t>
+          <t>0,8; 4,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,43</t>
+          <t>0,96; 4,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,55</t>
+          <t>0,38; 3,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,54</t>
+          <t>0,78; 4,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,67</t>
+          <t>1,19; 3,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,72</t>
+          <t>2,09; 5,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,47</t>
+          <t>0,95; 3,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,75</t>
+          <t>0,49; 2,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>2,21%</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,79</t>
+          <t>2,37; 4,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,5</t>
+          <t>2,21; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,63</t>
+          <t>1,87; 4,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 4,58</t>
+          <t>0,61; 2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,98</t>
+          <t>2,24; 4,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,33</t>
+          <t>1,6; 3,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,07</t>
+          <t>1,0; 2,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,85</t>
+          <t>1,54; 3,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,81</t>
+          <t>2,6; 4,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,16</t>
+          <t>2,14; 3,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,7</t>
+          <t>1,57; 2,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,05</t>
+          <t>1,18; 2,53</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 4,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 3,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 2,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 3,46</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 4,8</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 4,49</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,9</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 2,24</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 4,1</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 3,65</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 3,0</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 2,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
